--- a/summaries/genomes/lineages.xlsx
+++ b/summaries/genomes/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="1800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="1985">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -5390,7 +5390,7 @@
     <t xml:space="preserve">VSP1966</t>
   </si>
   <si>
-    <t xml:space="preserve">Weiss_Lab|WA_strain_SARS-CoV-2|single_experiment</t>
+    <t xml:space="preserve">Weiss_Lab|WA_strain_SARS-CoV-2|composite</t>
   </si>
   <si>
     <t xml:space="preserve">VSP1973</t>
@@ -5412,6 +5412,561 @@
   </si>
   <si>
     <t xml:space="preserve">VSP1975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0994|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0995|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0996|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0997|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0998|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0999|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1000|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1001|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1002|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1003|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1004|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1006|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1007|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1008|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1009|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1010|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1012|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1013|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1014|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1015|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1016|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1017|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1018|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1019|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1020|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1021|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1022|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1023|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1024|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1025|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1026|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1027|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1028|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1029|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1030|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1031|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1032|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1033|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1034|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1035|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1036|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1037|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1038|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1039|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1040|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1041|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1042|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1043|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1044|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1046|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1047|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1048|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1049|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1050|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1051|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1052|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1053|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1054|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1055|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1056|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1057|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1059|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1060|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1061|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1062|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1063|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1064|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1065|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1066|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1067|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1068|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1069|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1070|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1071|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1072|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1073|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1074|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1075|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1076|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1077|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1078|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1079|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1080|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1082|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1083|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-1084|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherry_Lab|Sample_87_2|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherry_Lab|Sample_87_4|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherry_Lab|Sample_87_11|single_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2396</t>
   </si>
 </sst>
 </file>
@@ -17265,6 +17820,1252 @@
         <v>247</v>
       </c>
     </row>
+    <row r="824">
+      <c r="A824" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C824" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D824" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C825" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D825" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C826" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D826" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D827" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C828" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D828" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D829" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D830" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D831" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D832" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D833" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C834" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D834" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D835" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D836" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C837" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D837" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D838" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C839" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D839" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D840" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C841" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D841" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D842" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D843" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C844" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D844" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C845" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D845" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C846" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D846" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C847" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D847" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C848" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D848" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D849" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C850" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D850" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C851" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D851" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C852" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D852" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C853" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D853" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C854" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D854" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C855" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D855" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D856" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C857" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D857" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C858" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D858" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C859" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D859" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C860" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D860" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D861" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D862" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D863" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D864" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C865" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D865" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C866" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D866" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C867" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D867" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C868" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D868" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C869" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D869" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D870" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D871" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D872" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D873" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D874" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D875" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D876" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C877" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D877" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D878" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C879" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D879" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C880" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D880" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C881" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D881" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C882" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D882" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C883" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D883" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D884" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C885" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D886" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C887" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D887" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D888" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C889" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D889" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C890" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D890" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D891" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D892" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C893" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D893" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D894" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C895" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D895" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C896" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D896" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D897" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C898" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D898" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C899" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D899" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C900" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D900" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C901" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D901" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C902" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D902" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C903" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D903" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C904" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D904" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C905" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D905" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C906" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D906" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D907" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D908" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C909" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D909" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D910" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C911" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D911" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C912" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D912" t="s">
+        <v>1795</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
